--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8331583333333333</v>
+        <v>1.461073666666667</v>
       </c>
       <c r="H2">
-        <v>2.499475</v>
+        <v>4.383221</v>
       </c>
       <c r="I2">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="J2">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N2">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O2">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P2">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q2">
-        <v>1.632139400955555</v>
+        <v>7.085376419441554</v>
       </c>
       <c r="R2">
-        <v>14.6892546086</v>
+        <v>63.76838777497399</v>
       </c>
       <c r="S2">
-        <v>0.0009656906503342153</v>
+        <v>0.009889470493425782</v>
       </c>
       <c r="T2">
-        <v>0.0009656906503342155</v>
+        <v>0.009889470493425786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8331583333333333</v>
+        <v>1.461073666666667</v>
       </c>
       <c r="H3">
-        <v>2.499475</v>
+        <v>4.383221</v>
       </c>
       <c r="I3">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="J3">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>80.554554</v>
       </c>
       <c r="O3">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P3">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q3">
-        <v>22.37156598435</v>
+        <v>39.23204585982599</v>
       </c>
       <c r="R3">
-        <v>201.34409385915</v>
+        <v>353.088412738434</v>
       </c>
       <c r="S3">
-        <v>0.01323662187909528</v>
+        <v>0.05475844005448845</v>
       </c>
       <c r="T3">
-        <v>0.01323662187909528</v>
+        <v>0.05475844005448845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8331583333333333</v>
+        <v>1.461073666666667</v>
       </c>
       <c r="H4">
-        <v>2.499475</v>
+        <v>4.383221</v>
       </c>
       <c r="I4">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="J4">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N4">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O4">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P4">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q4">
-        <v>0.1073879993388889</v>
+        <v>0.04284695932411111</v>
       </c>
       <c r="R4">
-        <v>0.96649199405</v>
+        <v>0.385622633917</v>
       </c>
       <c r="S4">
-        <v>6.35384372553885E-05</v>
+        <v>5.980398427472804E-05</v>
       </c>
       <c r="T4">
-        <v>6.35384372553885E-05</v>
+        <v>5.980398427472804E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8331583333333333</v>
+        <v>1.461073666666667</v>
       </c>
       <c r="H5">
-        <v>2.499475</v>
+        <v>4.383221</v>
       </c>
       <c r="I5">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="J5">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N5">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O5">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P5">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q5">
-        <v>13.03391174806111</v>
+        <v>11.54140369430067</v>
       </c>
       <c r="R5">
-        <v>117.30520573255</v>
+        <v>103.872633248706</v>
       </c>
       <c r="S5">
-        <v>0.007711796372916956</v>
+        <v>0.01610900600486343</v>
       </c>
       <c r="T5">
-        <v>0.007711796372916958</v>
+        <v>0.01610900600486343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8331583333333333</v>
+        <v>1.461073666666667</v>
       </c>
       <c r="H6">
-        <v>2.499475</v>
+        <v>4.383221</v>
       </c>
       <c r="I6">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="J6">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N6">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O6">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P6">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q6">
-        <v>0.5141375639888889</v>
+        <v>0.5820790861615556</v>
       </c>
       <c r="R6">
-        <v>4.6272380759</v>
+        <v>5.238711775454001</v>
       </c>
       <c r="S6">
-        <v>0.0003042006327639654</v>
+        <v>0.0008124415142771839</v>
       </c>
       <c r="T6">
-        <v>0.0003042006327639655</v>
+        <v>0.000812441514277184</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8331583333333333</v>
+        <v>1.461073666666667</v>
       </c>
       <c r="H7">
-        <v>2.499475</v>
+        <v>4.383221</v>
       </c>
       <c r="I7">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="J7">
-        <v>0.02250236124108079</v>
+        <v>0.08245163626738009</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N7">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O7">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P7">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q7">
-        <v>0.3726953286527777</v>
+        <v>0.5892670815769999</v>
       </c>
       <c r="R7">
-        <v>3.354257957874999</v>
+        <v>5.303403734192999</v>
       </c>
       <c r="S7">
-        <v>0.0002205132687149838</v>
+        <v>0.0008224742160504963</v>
       </c>
       <c r="T7">
-        <v>0.0002205132687149838</v>
+        <v>0.0008224742160504964</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>28.108758</v>
       </c>
       <c r="I8">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="J8">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N8">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O8">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P8">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q8">
-        <v>18.35481908949866</v>
+        <v>45.43716392876133</v>
       </c>
       <c r="R8">
-        <v>165.1933718054879</v>
+        <v>408.934475358852</v>
       </c>
       <c r="S8">
-        <v>0.01086002652281262</v>
+        <v>0.06341928295375614</v>
       </c>
       <c r="T8">
-        <v>0.01086002652281262</v>
+        <v>0.06341928295375615</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>28.108758</v>
       </c>
       <c r="I9">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="J9">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>80.554554</v>
       </c>
       <c r="O9">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P9">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q9">
         <v>251.587607131548</v>
@@ -1013,10 +1013,10 @@
         <v>2264.288464183932</v>
       </c>
       <c r="S9">
-        <v>0.1488572604794985</v>
+        <v>0.3511554037428463</v>
       </c>
       <c r="T9">
-        <v>0.1488572604794985</v>
+        <v>0.3511554037428463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>28.108758</v>
       </c>
       <c r="I10">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="J10">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N10">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O10">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P10">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q10">
-        <v>1.207670925102667</v>
+        <v>0.2747693558406666</v>
       </c>
       <c r="R10">
-        <v>10.869038325924</v>
+        <v>2.472924202566</v>
       </c>
       <c r="S10">
-        <v>0.0007145446769861269</v>
+        <v>0.0003835115138876493</v>
       </c>
       <c r="T10">
-        <v>0.0007145446769861268</v>
+        <v>0.0003835115138876493</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>28.108758</v>
       </c>
       <c r="I11">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="J11">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N11">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O11">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P11">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q11">
-        <v>146.5776097458893</v>
+        <v>74.012814645532</v>
       </c>
       <c r="R11">
-        <v>1319.198487713004</v>
+        <v>666.115331809788</v>
       </c>
       <c r="S11">
-        <v>0.08672581961876014</v>
+        <v>0.1033039747280032</v>
       </c>
       <c r="T11">
-        <v>0.08672581961876014</v>
+        <v>0.1033039747280032</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>28.108758</v>
       </c>
       <c r="I12">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="J12">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N12">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O12">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P12">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q12">
-        <v>5.781921549474667</v>
+        <v>3.732761859321334</v>
       </c>
       <c r="R12">
-        <v>52.037293945272</v>
+        <v>33.59485673389201</v>
       </c>
       <c r="S12">
-        <v>0.003420999197755199</v>
+        <v>0.005210032054959334</v>
       </c>
       <c r="T12">
-        <v>0.003420999197755199</v>
+        <v>0.005210032054959336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>28.108758</v>
       </c>
       <c r="I13">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="J13">
-        <v>0.2530585129093588</v>
+        <v>0.5287465748461714</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N13">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O13">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P13">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q13">
-        <v>4.191281289403332</v>
+        <v>3.778857099246</v>
       </c>
       <c r="R13">
-        <v>37.72153160462999</v>
+        <v>34.009713893214</v>
       </c>
       <c r="S13">
-        <v>0.002479862413546225</v>
+        <v>0.005274369852718609</v>
       </c>
       <c r="T13">
-        <v>0.002479862413546225</v>
+        <v>0.00527436985271861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2787653333333333</v>
+        <v>0.3205043333333333</v>
       </c>
       <c r="H14">
-        <v>0.8362959999999999</v>
+        <v>0.9615130000000001</v>
       </c>
       <c r="I14">
-        <v>0.007529034975933304</v>
+        <v>0.01808677229424604</v>
       </c>
       <c r="J14">
-        <v>0.007529034975933305</v>
+        <v>0.01808677229424605</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N14">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O14">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P14">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q14">
-        <v>0.546095341006222</v>
+        <v>1.554263756535778</v>
       </c>
       <c r="R14">
-        <v>4.914858069055999</v>
+        <v>13.988373808822</v>
       </c>
       <c r="S14">
-        <v>0.0003231091441650358</v>
+        <v>0.002169376000558791</v>
       </c>
       <c r="T14">
-        <v>0.0003231091441650358</v>
+        <v>0.002169376000558792</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2787653333333333</v>
+        <v>0.3205043333333333</v>
       </c>
       <c r="H15">
-        <v>0.8362959999999999</v>
+        <v>0.9615130000000001</v>
       </c>
       <c r="I15">
-        <v>0.007529034975933304</v>
+        <v>0.01808677229424604</v>
       </c>
       <c r="J15">
-        <v>0.007529034975933305</v>
+        <v>0.01808677229424605</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>80.554554</v>
       </c>
       <c r="O15">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P15">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q15">
-        <v>7.485272365775999</v>
+        <v>8.606027875578</v>
       </c>
       <c r="R15">
-        <v>67.367451291984</v>
+        <v>77.454250880202</v>
       </c>
       <c r="S15">
-        <v>0.004428823625361271</v>
+        <v>0.01201193185835516</v>
       </c>
       <c r="T15">
-        <v>0.004428823625361272</v>
+        <v>0.01201193185835516</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2787653333333333</v>
+        <v>0.3205043333333333</v>
       </c>
       <c r="H16">
-        <v>0.8362959999999999</v>
+        <v>0.9615130000000001</v>
       </c>
       <c r="I16">
-        <v>0.007529034975933304</v>
+        <v>0.01808677229424604</v>
       </c>
       <c r="J16">
-        <v>0.007529034975933305</v>
+        <v>0.01808677229424605</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N16">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O16">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P16">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q16">
-        <v>0.03593080718755556</v>
+        <v>0.009399003244555556</v>
       </c>
       <c r="R16">
-        <v>0.323377264688</v>
+        <v>0.08459102920100001</v>
       </c>
       <c r="S16">
-        <v>2.125924080974299E-05</v>
+        <v>1.311873353680925E-05</v>
       </c>
       <c r="T16">
-        <v>2.125924080974299E-05</v>
+        <v>1.311873353680925E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2787653333333333</v>
+        <v>0.3205043333333333</v>
       </c>
       <c r="H17">
-        <v>0.8362959999999999</v>
+        <v>0.9615130000000001</v>
       </c>
       <c r="I17">
-        <v>0.007529034975933304</v>
+        <v>0.01808677229424604</v>
       </c>
       <c r="J17">
-        <v>0.007529034975933305</v>
+        <v>0.01808677229424605</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N17">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O17">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P17">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q17">
-        <v>4.360999113516444</v>
+        <v>2.531747701135334</v>
       </c>
       <c r="R17">
-        <v>39.248992021648</v>
+        <v>22.785729310218</v>
       </c>
       <c r="S17">
-        <v>0.002580279642518912</v>
+        <v>0.003533706990990018</v>
       </c>
       <c r="T17">
-        <v>0.002580279642518913</v>
+        <v>0.003533706990990018</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2787653333333333</v>
+        <v>0.3205043333333333</v>
       </c>
       <c r="H18">
-        <v>0.8362959999999999</v>
+        <v>0.9615130000000001</v>
       </c>
       <c r="I18">
-        <v>0.007529034975933304</v>
+        <v>0.01808677229424604</v>
       </c>
       <c r="J18">
-        <v>0.007529034975933305</v>
+        <v>0.01808677229424605</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N18">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O18">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P18">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q18">
-        <v>0.1720246004515555</v>
+        <v>0.1276861486957778</v>
       </c>
       <c r="R18">
-        <v>1.548221404064</v>
+        <v>1.149175338262</v>
       </c>
       <c r="S18">
-        <v>0.0001017820831886589</v>
+        <v>0.000178218957638047</v>
       </c>
       <c r="T18">
-        <v>0.0001017820831886589</v>
+        <v>0.000178218957638047</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2787653333333333</v>
+        <v>0.3205043333333333</v>
       </c>
       <c r="H19">
-        <v>0.8362959999999999</v>
+        <v>0.9615130000000001</v>
       </c>
       <c r="I19">
-        <v>0.007529034975933304</v>
+        <v>0.01808677229424604</v>
       </c>
       <c r="J19">
-        <v>0.007529034975933305</v>
+        <v>0.01808677229424605</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N19">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O19">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P19">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q19">
-        <v>0.1246996319511111</v>
+        <v>0.129262923181</v>
       </c>
       <c r="R19">
-        <v>1.12229668756</v>
+        <v>1.163366308629</v>
       </c>
       <c r="S19">
-        <v>7.378123988968328E-05</v>
+        <v>0.0001804197531672167</v>
       </c>
       <c r="T19">
-        <v>7.378123988968326E-05</v>
+        <v>0.0001804197531672168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.01641633333334</v>
+        <v>4.333719333333334</v>
       </c>
       <c r="H20">
-        <v>75.049249</v>
+        <v>13.001158</v>
       </c>
       <c r="I20">
-        <v>0.6756560125105556</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="J20">
-        <v>0.6756560125105557</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N20">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O20">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P20">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q20">
-        <v>49.00662591345155</v>
+        <v>21.01607432493911</v>
       </c>
       <c r="R20">
-        <v>441.0596332210639</v>
+        <v>189.144668924452</v>
       </c>
       <c r="S20">
-        <v>0.0289958323543562</v>
+        <v>0.02933335289764458</v>
       </c>
       <c r="T20">
-        <v>0.0289958323543562</v>
+        <v>0.02933335289764459</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.01641633333334</v>
+        <v>4.333719333333334</v>
       </c>
       <c r="H21">
-        <v>75.049249</v>
+        <v>13.001158</v>
       </c>
       <c r="I21">
-        <v>0.6756560125105556</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="J21">
-        <v>0.6756560125105557</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>80.554554</v>
       </c>
       <c r="O21">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P21">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q21">
-        <v>671.728753469994</v>
+        <v>116.366942685948</v>
       </c>
       <c r="R21">
-        <v>6045.558781229946</v>
+        <v>1047.302484173532</v>
       </c>
       <c r="S21">
-        <v>0.3974428755330897</v>
+        <v>0.1624200858186099</v>
       </c>
       <c r="T21">
-        <v>0.3974428755330898</v>
+        <v>0.1624200858186099</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.01641633333334</v>
+        <v>4.333719333333334</v>
       </c>
       <c r="H22">
-        <v>75.049249</v>
+        <v>13.001158</v>
       </c>
       <c r="I22">
-        <v>0.6756560125105556</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="J22">
-        <v>0.6756560125105557</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N22">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O22">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P22">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q22">
-        <v>3.22443261164689</v>
+        <v>0.1270892085962222</v>
       </c>
       <c r="R22">
-        <v>29.019893504822</v>
+        <v>1.143802877366</v>
       </c>
       <c r="S22">
-        <v>0.001907805438602318</v>
+        <v>0.0001773857737461229</v>
       </c>
       <c r="T22">
-        <v>0.001907805438602318</v>
+        <v>0.0001773857737461229</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.01641633333334</v>
+        <v>4.333719333333334</v>
       </c>
       <c r="H23">
-        <v>75.049249</v>
+        <v>13.001158</v>
       </c>
       <c r="I23">
-        <v>0.6756560125105556</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="J23">
-        <v>0.6756560125105557</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N23">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O23">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P23">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q23">
-        <v>391.3563001127292</v>
+        <v>34.23318444846534</v>
       </c>
       <c r="R23">
-        <v>3522.206701014562</v>
+        <v>308.098660036188</v>
       </c>
       <c r="S23">
-        <v>0.2315544369230905</v>
+        <v>0.04778123947940984</v>
       </c>
       <c r="T23">
-        <v>0.2315544369230905</v>
+        <v>0.04778123947940984</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.01641633333334</v>
+        <v>4.333719333333334</v>
       </c>
       <c r="H24">
-        <v>75.049249</v>
+        <v>13.001158</v>
       </c>
       <c r="I24">
-        <v>0.6756560125105556</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="J24">
-        <v>0.6756560125105557</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N24">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O24">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P24">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q24">
-        <v>15.43749709841289</v>
+        <v>1.726516223499111</v>
       </c>
       <c r="R24">
-        <v>138.937473885716</v>
+        <v>15.538646011492</v>
       </c>
       <c r="S24">
-        <v>0.00913392973894934</v>
+        <v>0.002409798751392395</v>
       </c>
       <c r="T24">
-        <v>0.009133929738949342</v>
+        <v>0.002409798751392395</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.01641633333334</v>
+        <v>4.333719333333334</v>
       </c>
       <c r="H25">
-        <v>75.049249</v>
+        <v>13.001158</v>
       </c>
       <c r="I25">
-        <v>0.6756560125105556</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="J25">
-        <v>0.6756560125105557</v>
+        <v>0.2445614196662087</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N25">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O25">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P25">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q25">
-        <v>11.19055182436278</v>
+        <v>1.747836678046</v>
       </c>
       <c r="R25">
-        <v>100.714966419265</v>
+        <v>15.730530102414</v>
       </c>
       <c r="S25">
-        <v>0.006621132522467611</v>
+        <v>0.002439556945405819</v>
       </c>
       <c r="T25">
-        <v>0.006621132522467611</v>
+        <v>0.002439556945405819</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.289843666666666</v>
+        <v>1.902119333333333</v>
       </c>
       <c r="H26">
-        <v>3.869530999999999</v>
+        <v>5.706358</v>
       </c>
       <c r="I26">
-        <v>0.0348367494756141</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="J26">
-        <v>0.03483674947561411</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N26">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O26">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P26">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q26">
-        <v>2.52677622633511</v>
+        <v>9.224197094805776</v>
       </c>
       <c r="R26">
-        <v>22.74098603701599</v>
+        <v>83.017773853252</v>
       </c>
       <c r="S26">
-        <v>0.001495021917754091</v>
+        <v>0.01287474646291487</v>
       </c>
       <c r="T26">
-        <v>0.001495021917754091</v>
+        <v>0.01287474646291487</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.289843666666666</v>
+        <v>1.902119333333333</v>
       </c>
       <c r="H27">
-        <v>3.869530999999999</v>
+        <v>5.706358</v>
       </c>
       <c r="I27">
-        <v>0.0348367494756141</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="J27">
-        <v>0.03483674947561411</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>80.554554</v>
       </c>
       <c r="O27">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P27">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q27">
-        <v>34.63426043268599</v>
+        <v>51.07479151714799</v>
       </c>
       <c r="R27">
-        <v>311.7083438941739</v>
+        <v>459.673123654332</v>
       </c>
       <c r="S27">
-        <v>0.02049211082184756</v>
+        <v>0.07128804650106636</v>
       </c>
       <c r="T27">
-        <v>0.02049211082184756</v>
+        <v>0.07128804650106636</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.289843666666666</v>
+        <v>1.902119333333333</v>
       </c>
       <c r="H28">
-        <v>3.869530999999999</v>
+        <v>5.706358</v>
       </c>
       <c r="I28">
-        <v>0.0348367494756141</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="J28">
-        <v>0.03483674947561411</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N28">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O28">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P28">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q28">
-        <v>0.1662513897797778</v>
+        <v>0.05578091752955555</v>
       </c>
       <c r="R28">
-        <v>1.496262508018</v>
+        <v>0.502028257766</v>
       </c>
       <c r="S28">
-        <v>9.836623797048606E-05</v>
+        <v>7.785665931468401E-05</v>
       </c>
       <c r="T28">
-        <v>9.836623797048608E-05</v>
+        <v>7.785665931468401E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.289843666666666</v>
+        <v>1.902119333333333</v>
       </c>
       <c r="H29">
-        <v>3.869530999999999</v>
+        <v>5.706358</v>
       </c>
       <c r="I29">
-        <v>0.0348367494756141</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="J29">
-        <v>0.03483674947561411</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N29">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O29">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P29">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q29">
-        <v>20.17828766456422</v>
+        <v>15.02533896926533</v>
       </c>
       <c r="R29">
-        <v>181.604588981078</v>
+        <v>135.228050723388</v>
       </c>
       <c r="S29">
-        <v>0.01193892122573329</v>
+        <v>0.02097173637557871</v>
       </c>
       <c r="T29">
-        <v>0.01193892122573329</v>
+        <v>0.02097173637557871</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.289843666666666</v>
+        <v>1.902119333333333</v>
       </c>
       <c r="H30">
-        <v>3.869530999999999</v>
+        <v>5.706358</v>
       </c>
       <c r="I30">
-        <v>0.0348367494756141</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="J30">
-        <v>0.03483674947561411</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N30">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O30">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P30">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q30">
-        <v>0.7959556475337777</v>
+        <v>0.7577878573657778</v>
       </c>
       <c r="R30">
-        <v>7.163600827803999</v>
+        <v>6.820090716292001</v>
       </c>
       <c r="S30">
-        <v>0.0004709444098059712</v>
+        <v>0.001057688429245918</v>
       </c>
       <c r="T30">
-        <v>0.0004709444098059713</v>
+        <v>0.001057688429245918</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.289843666666666</v>
+        <v>1.902119333333333</v>
       </c>
       <c r="H31">
-        <v>3.869530999999999</v>
+        <v>5.706358</v>
       </c>
       <c r="I31">
-        <v>0.0348367494756141</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="J31">
-        <v>0.03483674947561411</v>
+        <v>0.1073408240714886</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N31">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O31">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P31">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q31">
-        <v>0.5769836176705554</v>
+        <v>0.7671456504459999</v>
       </c>
       <c r="R31">
-        <v>5.192852559034998</v>
+        <v>6.904310854014</v>
       </c>
       <c r="S31">
-        <v>0.0003413848625027095</v>
+        <v>0.00107074964336808</v>
       </c>
       <c r="T31">
-        <v>0.0003413848625027096</v>
+        <v>0.00107074964336808</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.237604</v>
+        <v>0.3333693333333334</v>
       </c>
       <c r="H32">
-        <v>0.712812</v>
+        <v>1.000108</v>
       </c>
       <c r="I32">
-        <v>0.006417328887457277</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="J32">
-        <v>0.006417328887457278</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N32">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O32">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P32">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q32">
-        <v>0.4654611671146666</v>
+        <v>1.616651690639111</v>
       </c>
       <c r="R32">
-        <v>4.189150504031999</v>
+        <v>14.549865215752</v>
       </c>
       <c r="S32">
-        <v>0.0002754001875778044</v>
+        <v>0.002256454455807515</v>
       </c>
       <c r="T32">
-        <v>0.0002754001875778044</v>
+        <v>0.002256454455807516</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.237604</v>
+        <v>0.3333693333333334</v>
       </c>
       <c r="H33">
-        <v>0.712812</v>
+        <v>1.000108</v>
       </c>
       <c r="I33">
-        <v>0.006417328887457277</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="J33">
-        <v>0.006417328887457278</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>80.554554</v>
       </c>
       <c r="O33">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P33">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q33">
-        <v>6.380028082872</v>
+        <v>8.951472654648001</v>
       </c>
       <c r="R33">
-        <v>57.420252745848</v>
+        <v>80.56325389183199</v>
       </c>
       <c r="S33">
-        <v>0.003774881891149807</v>
+        <v>0.01249408915635655</v>
       </c>
       <c r="T33">
-        <v>0.003774881891149807</v>
+        <v>0.01249408915635656</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.237604</v>
+        <v>0.3333693333333334</v>
       </c>
       <c r="H34">
-        <v>0.712812</v>
+        <v>1.000108</v>
       </c>
       <c r="I34">
-        <v>0.006417328887457277</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="J34">
-        <v>0.006417328887457278</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N34">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O34">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P34">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q34">
-        <v>0.03062541317066667</v>
+        <v>0.009776277946222222</v>
       </c>
       <c r="R34">
-        <v>0.275628718536</v>
+        <v>0.087986501516</v>
       </c>
       <c r="S34">
-        <v>1.812018945454065E-05</v>
+        <v>1.364531770244524E-05</v>
       </c>
       <c r="T34">
-        <v>1.812018945454065E-05</v>
+        <v>1.364531770244524E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.237604</v>
+        <v>0.3333693333333334</v>
       </c>
       <c r="H35">
-        <v>0.712812</v>
+        <v>1.000108</v>
       </c>
       <c r="I35">
-        <v>0.006417328887457277</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="J35">
-        <v>0.006417328887457278</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N35">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O35">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P35">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q35">
-        <v>3.717072065517334</v>
+        <v>2.633371706765334</v>
       </c>
       <c r="R35">
-        <v>33.45364858965601</v>
+        <v>23.700345360888</v>
       </c>
       <c r="S35">
-        <v>0.002199286248580875</v>
+        <v>0.003675549505149743</v>
       </c>
       <c r="T35">
-        <v>0.002199286248580875</v>
+        <v>0.003675549505149743</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.237604</v>
+        <v>0.3333693333333334</v>
       </c>
       <c r="H36">
-        <v>0.712812</v>
+        <v>1.000108</v>
       </c>
       <c r="I36">
-        <v>0.006417328887457277</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="J36">
-        <v>0.006417328887457278</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N36">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O36">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P36">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q36">
-        <v>0.1466241611786667</v>
+        <v>0.1328114531991111</v>
       </c>
       <c r="R36">
-        <v>1.319617450608</v>
+        <v>1.195303078792</v>
       </c>
       <c r="S36">
-        <v>8.67533627828835E-05</v>
+        <v>0.0001853726421644553</v>
       </c>
       <c r="T36">
-        <v>8.675336278288351E-05</v>
+        <v>0.0001853726421644553</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.237604</v>
+        <v>0.3333693333333334</v>
       </c>
       <c r="H37">
-        <v>0.712812</v>
+        <v>1.000108</v>
       </c>
       <c r="I37">
-        <v>0.006417328887457277</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="J37">
-        <v>0.006417328887457278</v>
+        <v>0.01881277285450516</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N37">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O37">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P37">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q37">
-        <v>0.1062870013133333</v>
+        <v>0.134451519196</v>
       </c>
       <c r="R37">
-        <v>0.9565830118199998</v>
+        <v>1.210063672764</v>
       </c>
       <c r="S37">
-        <v>6.288700791136741E-05</v>
+        <v>0.0001876617773244447</v>
       </c>
       <c r="T37">
-        <v>6.28870079113674E-05</v>
+        <v>0.0001876617773244447</v>
       </c>
     </row>
   </sheetData>
